--- a/SCH-STH/Baseline Mapping/Botwana/3. BOTSWANA SCH STH Mid Term Evaluation - Kato Katz Form.xlsx
+++ b/SCH-STH/Baseline Mapping/Botwana/3. BOTSWANA SCH STH Mid Term Evaluation - Kato Katz Form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 04.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3135" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -244,15 +244,6 @@
     <t>The repeated code must be the same</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}$')</t>
-  </si>
-  <si>
-    <t>The format must be 123-123456</t>
-  </si>
-  <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 123-123456 number only with dashes)</t>
-  </si>
-  <si>
     <t>k_district</t>
   </si>
   <si>
@@ -572,6 +563,15 @@
   </si>
   <si>
     <t>Select the district</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (must be entered as 123-123456-123 number only with dashes)</t>
+  </si>
+  <si>
+    <t>The format must be 123-123456-123</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1050,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>27</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="13"/>
@@ -1183,18 +1183,18 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="13"/>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>33</v>
@@ -1267,7 +1267,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>34</v>
@@ -1277,7 +1277,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="17"/>
       <c r="H8" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="7" t="s">
@@ -1286,26 +1286,26 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="7" t="s">
@@ -1319,7 +1319,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>35</v>
@@ -1327,13 +1327,13 @@
       <c r="D10" s="14"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
@@ -1729,13 +1729,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,1135 +1762,1135 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="C5" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
         <v>92</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
         <v>92</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
         <v>92</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
         <v>92</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
         <v>92</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B89" s="24">
         <v>101</v>
@@ -2899,12 +2899,12 @@
         <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B90" s="24">
         <v>102</v>
@@ -2913,12 +2913,12 @@
         <v>102</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B91" s="24">
         <v>103</v>
@@ -2927,12 +2927,12 @@
         <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B92" s="24">
         <v>104</v>
@@ -2941,12 +2941,12 @@
         <v>104</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B93" s="24">
         <v>105</v>
@@ -2955,12 +2955,12 @@
         <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B94" s="24">
         <v>106</v>
@@ -2969,12 +2969,12 @@
         <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B95" s="24">
         <v>107</v>
@@ -2983,12 +2983,12 @@
         <v>107</v>
       </c>
       <c r="F95" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B96" s="24">
         <v>108</v>
@@ -2997,12 +2997,12 @@
         <v>108</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B97" s="24">
         <v>109</v>
@@ -3011,12 +3011,12 @@
         <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B98" s="24">
         <v>110</v>
@@ -3025,12 +3025,12 @@
         <v>110</v>
       </c>
       <c r="F98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B99" s="24">
         <v>111</v>
@@ -3039,12 +3039,12 @@
         <v>111</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B100" s="24">
         <v>112</v>
@@ -3053,12 +3053,12 @@
         <v>112</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B101" s="24">
         <v>113</v>
@@ -3067,12 +3067,12 @@
         <v>113</v>
       </c>
       <c r="F101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B102" s="24">
         <v>114</v>
@@ -3081,12 +3081,12 @@
         <v>114</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B103" s="24">
         <v>115</v>
@@ -3095,12 +3095,12 @@
         <v>115</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B104" s="24">
         <v>116</v>
@@ -3109,12 +3109,12 @@
         <v>116</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B105" s="24">
         <v>117</v>
@@ -3123,12 +3123,12 @@
         <v>117</v>
       </c>
       <c r="F105" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B106" s="24">
         <v>118</v>
@@ -3137,12 +3137,12 @@
         <v>118</v>
       </c>
       <c r="F106" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B107" s="24">
         <v>119</v>
@@ -3151,12 +3151,12 @@
         <v>119</v>
       </c>
       <c r="F107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B108" s="24">
         <v>120</v>
@@ -3165,12 +3165,12 @@
         <v>120</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B109" s="24">
         <v>121</v>
@@ -3179,12 +3179,12 @@
         <v>121</v>
       </c>
       <c r="F109" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B110" s="24">
         <v>122</v>
@@ -3193,12 +3193,12 @@
         <v>122</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B111" s="24">
         <v>123</v>
@@ -3207,12 +3207,12 @@
         <v>123</v>
       </c>
       <c r="F111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B112" s="24">
         <v>124</v>
@@ -3221,12 +3221,12 @@
         <v>124</v>
       </c>
       <c r="F112" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B113" s="24">
         <v>125</v>
@@ -3235,12 +3235,12 @@
         <v>125</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B114" s="24">
         <v>126</v>
@@ -3249,12 +3249,12 @@
         <v>126</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B115" s="24">
         <v>127</v>
@@ -3263,12 +3263,12 @@
         <v>127</v>
       </c>
       <c r="F115" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B116" s="24">
         <v>128</v>
@@ -3277,12 +3277,12 @@
         <v>128</v>
       </c>
       <c r="F116" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B117" s="24">
         <v>129</v>
@@ -3291,12 +3291,12 @@
         <v>129</v>
       </c>
       <c r="F117" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B118" s="24">
         <v>130</v>
@@ -3305,12 +3305,12 @@
         <v>130</v>
       </c>
       <c r="F118" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B119" s="24">
         <v>131</v>
@@ -3319,12 +3319,12 @@
         <v>131</v>
       </c>
       <c r="F119" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B120" s="24">
         <v>132</v>
@@ -3333,12 +3333,12 @@
         <v>132</v>
       </c>
       <c r="F120" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B121" s="24">
         <v>133</v>
@@ -3347,12 +3347,12 @@
         <v>133</v>
       </c>
       <c r="F121" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B122" s="24">
         <v>134</v>
@@ -3361,12 +3361,12 @@
         <v>134</v>
       </c>
       <c r="F122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B123" s="24">
         <v>135</v>
@@ -3375,12 +3375,12 @@
         <v>135</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B124" s="24">
         <v>136</v>
@@ -3389,12 +3389,12 @@
         <v>136</v>
       </c>
       <c r="F124" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B125" s="24">
         <v>137</v>
@@ -3403,12 +3403,12 @@
         <v>137</v>
       </c>
       <c r="F125" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B126" s="24">
         <v>138</v>
@@ -3417,12 +3417,12 @@
         <v>138</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B127" s="24">
         <v>139</v>
@@ -3431,12 +3431,12 @@
         <v>139</v>
       </c>
       <c r="F127" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B128" s="24">
         <v>140</v>
@@ -3445,12 +3445,12 @@
         <v>140</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B129" s="24">
         <v>141</v>
@@ -3459,12 +3459,12 @@
         <v>141</v>
       </c>
       <c r="F129" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B130" s="24">
         <v>142</v>
@@ -3473,12 +3473,12 @@
         <v>142</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B131" s="24">
         <v>143</v>
@@ -3487,12 +3487,12 @@
         <v>143</v>
       </c>
       <c r="F131" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B132" s="24">
         <v>144</v>
@@ -3501,12 +3501,12 @@
         <v>144</v>
       </c>
       <c r="F132" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B133" s="24">
         <v>145</v>
@@ -3515,12 +3515,12 @@
         <v>145</v>
       </c>
       <c r="F133" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B134" s="24">
         <v>146</v>
@@ -3529,12 +3529,12 @@
         <v>146</v>
       </c>
       <c r="F134" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B135" s="24">
         <v>147</v>
@@ -3543,12 +3543,12 @@
         <v>147</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B136" s="24">
         <v>148</v>
@@ -3557,12 +3557,12 @@
         <v>148</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B137" s="24">
         <v>149</v>
@@ -3571,12 +3571,12 @@
         <v>149</v>
       </c>
       <c r="F137" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B138" s="24">
         <v>150</v>
@@ -3585,12 +3585,12 @@
         <v>150</v>
       </c>
       <c r="F138" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B139" s="24">
         <v>151</v>
@@ -3599,12 +3599,12 @@
         <v>151</v>
       </c>
       <c r="F139" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B140" s="24">
         <v>152</v>
@@ -3613,12 +3613,12 @@
         <v>152</v>
       </c>
       <c r="F140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B141" s="24">
         <v>153</v>
@@ -3627,12 +3627,12 @@
         <v>153</v>
       </c>
       <c r="F141" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B142" s="24">
         <v>154</v>
@@ -3641,12 +3641,12 @@
         <v>154</v>
       </c>
       <c r="F142" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B143" s="24">
         <v>155</v>
@@ -3655,12 +3655,12 @@
         <v>155</v>
       </c>
       <c r="F143" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B144" s="24">
         <v>156</v>
@@ -3669,12 +3669,12 @@
         <v>156</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B145" s="24">
         <v>157</v>
@@ -3683,12 +3683,12 @@
         <v>157</v>
       </c>
       <c r="F145" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B146" s="24">
         <v>158</v>
@@ -3697,12 +3697,12 @@
         <v>158</v>
       </c>
       <c r="F146" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B147" s="24">
         <v>159</v>
@@ -3711,12 +3711,12 @@
         <v>159</v>
       </c>
       <c r="F147" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B148" s="24">
         <v>160</v>
@@ -3725,7 +3725,7 @@
         <v>160</v>
       </c>
       <c r="F148" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3768,10 +3768,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C2">
         <v>202106</v>

--- a/SCH-STH/Baseline Mapping/Botwana/3. BOTSWANA SCH STH Mid Term Evaluation - Kato Katz Form.xlsx
+++ b/SCH-STH/Baseline Mapping/Botwana/3. BOTSWANA SCH STH Mid Term Evaluation - Kato Katz Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 04.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 01.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
   <si>
     <t>form_title</t>
   </si>
@@ -103,9 +103,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>The code must be a two-digit number between 9 and 91</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}$')</t>
-  </si>
-  <si>
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
@@ -127,15 +121,6 @@
     <t>Select the school code</t>
   </si>
   <si>
-    <t>3 digits code assigned to you</t>
-  </si>
-  <si>
-    <t>Does a bar code need to be scanned on the diagnostic test?</t>
-  </si>
-  <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
     <t>Re-enter the unique ID</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
     <t>k_end</t>
   </si>
   <si>
-    <t>The code must be a two-digit number between 99 and 901</t>
-  </si>
-  <si>
     <t>p_IDMethod</t>
   </si>
   <si>
@@ -232,12 +214,6 @@
     <t>Automatic ID generation</t>
   </si>
   <si>
-    <t>select_one p_IDMethod</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>k_RecorderID</t>
   </si>
   <si>
@@ -247,15 +223,6 @@
     <t>k_district</t>
   </si>
   <si>
-    <t>k_id_type</t>
-  </si>
-  <si>
-    <t>${k_id_type} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>${k_id_type} != 'Scanner'</t>
-  </si>
-  <si>
     <t>k_generate_id</t>
   </si>
   <si>
@@ -265,9 +232,6 @@
     <t>. = ${k_generate_id}</t>
   </si>
   <si>
-    <t>k_barcode_id</t>
-  </si>
-  <si>
     <t>k_region</t>
   </si>
   <si>
@@ -319,9 +283,6 @@
     <t>Francistown</t>
   </si>
   <si>
-    <t>Gantsi</t>
-  </si>
-  <si>
     <t>Ghanzi</t>
   </si>
   <si>
@@ -334,9 +295,6 @@
     <t>Kgalagadi South</t>
   </si>
   <si>
-    <t>Klagadi North</t>
-  </si>
-  <si>
     <t>Kweneng West</t>
   </si>
   <si>
@@ -556,22 +514,121 @@
     <t>school_list = ${k_school_name}</t>
   </si>
   <si>
-    <t>3. BOTSWANA SCH/STH Mid Term Evaluation - Kato Katz Form</t>
-  </si>
-  <si>
-    <t>bw_sch_sth_mid_term_evaluation_3_kato_katz</t>
-  </si>
-  <si>
     <t>Select the district</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 123-123456-123 number only with dashes)</t>
-  </si>
-  <si>
-    <t>The format must be 123-123456-123</t>
+    <t>The code must be a two-digit number between 01 and 60</t>
+  </si>
+  <si>
+    <t>regex(.,'^[A-Z]{2}-[0-9]{2}-[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>The format must be like CH-01-01</t>
+  </si>
+  <si>
+    <t>dist_abbr_list</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>GZ</t>
+  </si>
+  <si>
+    <t>JW</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>District abbreviation-school code-participant position</t>
+  </si>
+  <si>
+    <t>3. BOTSWANA SCH/STH Mid Term Evaluation - Kato Katz Form V2</t>
+  </si>
+  <si>
+    <t>bw_sch_sth_mid_term_evaluation_3_kato_katz_v2</t>
+  </si>
+  <si>
+    <t>202106_v2</t>
+  </si>
+  <si>
+    <t>. &gt; 9 and . &lt; 100</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 10 and 99</t>
+  </si>
+  <si>
+    <t>2 digit code assigned to each school</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (e.g. AB-01-01)</t>
   </si>
 </sst>
 </file>
@@ -683,7 +740,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -758,6 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1047,13 +1105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1115,41 +1173,41 @@
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7"/>
@@ -1157,20 +1215,20 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="13"/>
@@ -1179,22 +1237,22 @@
       <c r="H4" s="9"/>
       <c r="I4" s="11"/>
       <c r="J4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="12" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="13"/>
@@ -1203,181 +1261,181 @@
       <c r="H5" s="9"/>
       <c r="I5" s="11"/>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="11"/>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="12" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="11"/>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="7"/>
+      <c r="D10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="19"/>
@@ -1385,23 +1443,23 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="19"/>
@@ -1409,23 +1467,23 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="19"/>
@@ -1433,7 +1491,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1442,14 +1500,14 @@
       <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>27</v>
+      <c r="D15" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="19"/>
@@ -1457,7 +1515,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -1466,14 +1524,14 @@
       <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>27</v>
+      <c r="D16" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="19"/>
@@ -1481,71 +1539,71 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>51</v>
-      </c>
       <c r="D18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="20"/>
@@ -1553,7 +1611,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="5"/>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1563,13 +1621,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="20"/>
@@ -1577,71 +1635,67 @@
       <c r="H20" s="9"/>
       <c r="I20" s="5"/>
       <c r="J20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>20</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="20"/>
       <c r="G21" s="6"/>
       <c r="H21" s="9"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>19</v>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="20"/>
       <c r="G22" s="6"/>
       <c r="H22" s="9"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>21</v>
+      <c r="A23" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="20"/>
@@ -1652,50 +1706,6 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1704,11 +1714,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F148"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1716,9 +1726,10 @@
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="40" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1729,2003 +1740,2216 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C16" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>102</v>
-      </c>
       <c r="C17" s="24" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" t="s">
         <v>90</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E83" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="24">
+        <v>10</v>
+      </c>
+      <c r="C115" s="24">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="24">
+        <v>11</v>
+      </c>
+      <c r="C116" s="24">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="24">
+        <v>12</v>
+      </c>
+      <c r="C117" s="24">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="24">
+        <v>13</v>
+      </c>
+      <c r="C118" s="24">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="24">
+        <v>14</v>
+      </c>
+      <c r="C119" s="24">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="24">
+        <v>15</v>
+      </c>
+      <c r="C120" s="24">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" s="24">
+        <v>16</v>
+      </c>
+      <c r="C121" s="24">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" s="24">
+        <v>17</v>
+      </c>
+      <c r="C122" s="24">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" s="24">
+        <v>18</v>
+      </c>
+      <c r="C123" s="24">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="24">
+        <v>19</v>
+      </c>
+      <c r="C124" s="24">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="24">
+        <v>20</v>
+      </c>
+      <c r="C125" s="24">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="24">
+        <v>21</v>
+      </c>
+      <c r="C126" s="24">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="24">
+        <v>22</v>
+      </c>
+      <c r="C127" s="24">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="24">
+        <v>23</v>
+      </c>
+      <c r="C128" s="24">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="24">
+        <v>24</v>
+      </c>
+      <c r="C129" s="24">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="24">
+        <v>25</v>
+      </c>
+      <c r="C130" s="24">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="24">
+        <v>26</v>
+      </c>
+      <c r="C131" s="24">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="24">
+        <v>27</v>
+      </c>
+      <c r="C132" s="24">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="24">
+        <v>28</v>
+      </c>
+      <c r="C133" s="24">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="24">
+        <v>29</v>
+      </c>
+      <c r="C134" s="24">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="24">
+        <v>30</v>
+      </c>
+      <c r="C135" s="24">
+        <v>30</v>
+      </c>
+      <c r="G135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="24">
+        <v>31</v>
+      </c>
+      <c r="C136" s="24">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="24">
+        <v>32</v>
+      </c>
+      <c r="C137" s="24">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="24">
+        <v>33</v>
+      </c>
+      <c r="C138" s="24">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="24">
+        <v>34</v>
+      </c>
+      <c r="C139" s="24">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="24">
+        <v>35</v>
+      </c>
+      <c r="C140" s="24">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="24">
+        <v>36</v>
+      </c>
+      <c r="C141" s="24">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="24">
+        <v>37</v>
+      </c>
+      <c r="C142" s="24">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="24">
+        <v>38</v>
+      </c>
+      <c r="C143" s="24">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="24">
+        <v>39</v>
+      </c>
+      <c r="C144" s="24">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E86" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="24">
+        <v>40</v>
+      </c>
+      <c r="C145" s="24">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="24">
+        <v>41</v>
+      </c>
+      <c r="C146" s="24">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="24">
+        <v>42</v>
+      </c>
+      <c r="C147" s="24">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="24">
+        <v>43</v>
+      </c>
+      <c r="C148" s="24">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="24">
+        <v>44</v>
+      </c>
+      <c r="C149" s="24">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="24">
+        <v>45</v>
+      </c>
+      <c r="C150" s="24">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="24">
+        <v>46</v>
+      </c>
+      <c r="C151" s="24">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="24">
+        <v>47</v>
+      </c>
+      <c r="C152" s="24">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="24">
+        <v>48</v>
+      </c>
+      <c r="C153" s="24">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="24">
+        <v>49</v>
+      </c>
+      <c r="C154" s="24">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="24">
+        <v>50</v>
+      </c>
+      <c r="C155" s="24">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>172</v>
-      </c>
-      <c r="B89" s="24">
-        <v>101</v>
-      </c>
-      <c r="C89" s="24">
-        <v>101</v>
-      </c>
-      <c r="F89" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="24">
-        <v>102</v>
-      </c>
-      <c r="C90" s="24">
-        <v>102</v>
-      </c>
-      <c r="F90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>172</v>
-      </c>
-      <c r="B91" s="24">
-        <v>103</v>
-      </c>
-      <c r="C91" s="24">
-        <v>103</v>
-      </c>
-      <c r="F91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>172</v>
-      </c>
-      <c r="B92" s="24">
-        <v>104</v>
-      </c>
-      <c r="C92" s="24">
-        <v>104</v>
-      </c>
-      <c r="F92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" s="24">
-        <v>105</v>
-      </c>
-      <c r="C93" s="24">
-        <v>105</v>
-      </c>
-      <c r="F93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>172</v>
-      </c>
-      <c r="B94" s="24">
-        <v>106</v>
-      </c>
-      <c r="C94" s="24">
-        <v>106</v>
-      </c>
-      <c r="F94" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="24">
-        <v>107</v>
-      </c>
-      <c r="C95" s="24">
-        <v>107</v>
-      </c>
-      <c r="F95" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96" s="24">
-        <v>108</v>
-      </c>
-      <c r="C96" s="24">
-        <v>108</v>
-      </c>
-      <c r="F96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>172</v>
-      </c>
-      <c r="B97" s="24">
-        <v>109</v>
-      </c>
-      <c r="C97" s="24">
-        <v>109</v>
-      </c>
-      <c r="F97" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>172</v>
-      </c>
-      <c r="B98" s="24">
-        <v>110</v>
-      </c>
-      <c r="C98" s="24">
-        <v>110</v>
-      </c>
-      <c r="F98" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="24">
+        <v>51</v>
+      </c>
+      <c r="C156" s="24">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="24">
+        <v>52</v>
+      </c>
+      <c r="C157" s="24">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="24">
+        <v>53</v>
+      </c>
+      <c r="C158" s="24">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="24">
+        <v>54</v>
+      </c>
+      <c r="C159" s="24">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="24">
+        <v>55</v>
+      </c>
+      <c r="C160" s="24">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="24">
+        <v>56</v>
+      </c>
+      <c r="C161" s="24">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="24">
+        <v>57</v>
+      </c>
+      <c r="C162" s="24">
+        <v>57</v>
+      </c>
+      <c r="G162" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="24">
+        <v>58</v>
+      </c>
+      <c r="C163" s="24">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="24">
-        <v>111</v>
-      </c>
-      <c r="C99" s="24">
-        <v>111</v>
-      </c>
-      <c r="F99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" s="24">
-        <v>112</v>
-      </c>
-      <c r="C100" s="24">
-        <v>112</v>
-      </c>
-      <c r="F100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>172</v>
-      </c>
-      <c r="B101" s="24">
-        <v>113</v>
-      </c>
-      <c r="C101" s="24">
-        <v>113</v>
-      </c>
-      <c r="F101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>172</v>
-      </c>
-      <c r="B102" s="24">
-        <v>114</v>
-      </c>
-      <c r="C102" s="24">
-        <v>114</v>
-      </c>
-      <c r="F102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>172</v>
-      </c>
-      <c r="B103" s="24">
-        <v>115</v>
-      </c>
-      <c r="C103" s="24">
-        <v>115</v>
-      </c>
-      <c r="F103" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>172</v>
-      </c>
-      <c r="B104" s="24">
-        <v>116</v>
-      </c>
-      <c r="C104" s="24">
-        <v>116</v>
-      </c>
-      <c r="F104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="24">
-        <v>117</v>
-      </c>
-      <c r="C105" s="24">
-        <v>117</v>
-      </c>
-      <c r="F105" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>172</v>
-      </c>
-      <c r="B106" s="24">
-        <v>118</v>
-      </c>
-      <c r="C106" s="24">
-        <v>118</v>
-      </c>
-      <c r="F106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>172</v>
-      </c>
-      <c r="B107" s="24">
-        <v>119</v>
-      </c>
-      <c r="C107" s="24">
-        <v>119</v>
-      </c>
-      <c r="F107" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="24">
-        <v>120</v>
-      </c>
-      <c r="C108" s="24">
-        <v>120</v>
-      </c>
-      <c r="F108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>172</v>
-      </c>
-      <c r="B109" s="24">
-        <v>121</v>
-      </c>
-      <c r="C109" s="24">
-        <v>121</v>
-      </c>
-      <c r="F109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>172</v>
-      </c>
-      <c r="B110" s="24">
-        <v>122</v>
-      </c>
-      <c r="C110" s="24">
-        <v>122</v>
-      </c>
-      <c r="F110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="24">
-        <v>123</v>
-      </c>
-      <c r="C111" s="24">
-        <v>123</v>
-      </c>
-      <c r="F111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" s="24">
-        <v>124</v>
-      </c>
-      <c r="C112" s="24">
-        <v>124</v>
-      </c>
-      <c r="F112" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>172</v>
-      </c>
-      <c r="B113" s="24">
-        <v>125</v>
-      </c>
-      <c r="C113" s="24">
-        <v>125</v>
-      </c>
-      <c r="F113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>172</v>
-      </c>
-      <c r="B114" s="24">
-        <v>126</v>
-      </c>
-      <c r="C114" s="24">
-        <v>126</v>
-      </c>
-      <c r="F114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>172</v>
-      </c>
-      <c r="B115" s="24">
-        <v>127</v>
-      </c>
-      <c r="C115" s="24">
-        <v>127</v>
-      </c>
-      <c r="F115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>172</v>
-      </c>
-      <c r="B116" s="24">
-        <v>128</v>
-      </c>
-      <c r="C116" s="24">
-        <v>128</v>
-      </c>
-      <c r="F116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>172</v>
-      </c>
-      <c r="B117" s="24">
-        <v>129</v>
-      </c>
-      <c r="C117" s="24">
-        <v>129</v>
-      </c>
-      <c r="F117" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>172</v>
-      </c>
-      <c r="B118" s="24">
-        <v>130</v>
-      </c>
-      <c r="C118" s="24">
-        <v>130</v>
-      </c>
-      <c r="F118" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="24">
+        <v>59</v>
+      </c>
+      <c r="C164" s="24">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="24">
+        <v>60</v>
+      </c>
+      <c r="C165" s="24">
+        <v>60</v>
+      </c>
+      <c r="G165" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>172</v>
-      </c>
-      <c r="B119" s="24">
-        <v>131</v>
-      </c>
-      <c r="C119" s="24">
-        <v>131</v>
-      </c>
-      <c r="F119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>172</v>
-      </c>
-      <c r="B120" s="24">
-        <v>132</v>
-      </c>
-      <c r="C120" s="24">
-        <v>132</v>
-      </c>
-      <c r="F120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>172</v>
-      </c>
-      <c r="B121" s="24">
-        <v>133</v>
-      </c>
-      <c r="C121" s="24">
-        <v>133</v>
-      </c>
-      <c r="F121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>172</v>
-      </c>
-      <c r="B122" s="24">
-        <v>134</v>
-      </c>
-      <c r="C122" s="24">
-        <v>134</v>
-      </c>
-      <c r="F122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>172</v>
-      </c>
-      <c r="B123" s="24">
-        <v>135</v>
-      </c>
-      <c r="C123" s="24">
-        <v>135</v>
-      </c>
-      <c r="F123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>172</v>
-      </c>
-      <c r="B124" s="24">
-        <v>136</v>
-      </c>
-      <c r="C124" s="24">
-        <v>136</v>
-      </c>
-      <c r="F124" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>172</v>
-      </c>
-      <c r="B125" s="24">
-        <v>137</v>
-      </c>
-      <c r="C125" s="24">
-        <v>137</v>
-      </c>
-      <c r="F125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>172</v>
-      </c>
-      <c r="B126" s="24">
-        <v>138</v>
-      </c>
-      <c r="C126" s="24">
-        <v>138</v>
-      </c>
-      <c r="F126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>172</v>
-      </c>
-      <c r="B127" s="24">
-        <v>139</v>
-      </c>
-      <c r="C127" s="24">
-        <v>139</v>
-      </c>
-      <c r="F127" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>172</v>
-      </c>
-      <c r="B128" s="24">
-        <v>140</v>
-      </c>
-      <c r="C128" s="24">
-        <v>140</v>
-      </c>
-      <c r="F128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>172</v>
-      </c>
-      <c r="B129" s="24">
-        <v>141</v>
-      </c>
-      <c r="C129" s="24">
-        <v>141</v>
-      </c>
-      <c r="F129" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>172</v>
-      </c>
-      <c r="B130" s="24">
-        <v>142</v>
-      </c>
-      <c r="C130" s="24">
-        <v>142</v>
-      </c>
-      <c r="F130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>172</v>
-      </c>
-      <c r="B131" s="24">
-        <v>143</v>
-      </c>
-      <c r="C131" s="24">
-        <v>143</v>
-      </c>
-      <c r="F131" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>172</v>
-      </c>
-      <c r="B132" s="24">
-        <v>144</v>
-      </c>
-      <c r="C132" s="24">
-        <v>144</v>
-      </c>
-      <c r="F132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>172</v>
-      </c>
-      <c r="B133" s="24">
-        <v>145</v>
-      </c>
-      <c r="C133" s="24">
-        <v>145</v>
-      </c>
-      <c r="F133" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>172</v>
-      </c>
-      <c r="B134" s="24">
-        <v>146</v>
-      </c>
-      <c r="C134" s="24">
-        <v>146</v>
-      </c>
-      <c r="F134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>172</v>
-      </c>
-      <c r="B135" s="24">
-        <v>147</v>
-      </c>
-      <c r="C135" s="24">
-        <v>147</v>
-      </c>
-      <c r="F135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>172</v>
-      </c>
-      <c r="B136" s="24">
-        <v>148</v>
-      </c>
-      <c r="C136" s="24">
-        <v>148</v>
-      </c>
-      <c r="F136" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>172</v>
-      </c>
-      <c r="B137" s="24">
-        <v>149</v>
-      </c>
-      <c r="C137" s="24">
-        <v>149</v>
-      </c>
-      <c r="F137" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>172</v>
-      </c>
-      <c r="B138" s="24">
-        <v>150</v>
-      </c>
-      <c r="C138" s="24">
-        <v>150</v>
-      </c>
-      <c r="F138" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>172</v>
-      </c>
-      <c r="B139" s="24">
-        <v>151</v>
-      </c>
-      <c r="C139" s="24">
-        <v>151</v>
-      </c>
-      <c r="F139" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>172</v>
-      </c>
-      <c r="B140" s="24">
-        <v>152</v>
-      </c>
-      <c r="C140" s="24">
-        <v>152</v>
-      </c>
-      <c r="F140" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>172</v>
-      </c>
-      <c r="B141" s="24">
-        <v>153</v>
-      </c>
-      <c r="C141" s="24">
-        <v>153</v>
-      </c>
-      <c r="F141" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>172</v>
-      </c>
-      <c r="B142" s="24">
-        <v>154</v>
-      </c>
-      <c r="C142" s="24">
-        <v>154</v>
-      </c>
-      <c r="F142" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>172</v>
-      </c>
-      <c r="B143" s="24">
-        <v>155</v>
-      </c>
-      <c r="C143" s="24">
-        <v>155</v>
-      </c>
-      <c r="F143" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>172</v>
-      </c>
-      <c r="B144" s="24">
-        <v>156</v>
-      </c>
-      <c r="C144" s="24">
-        <v>156</v>
-      </c>
-      <c r="F144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>172</v>
-      </c>
-      <c r="B145" s="24">
-        <v>157</v>
-      </c>
-      <c r="C145" s="24">
-        <v>157</v>
-      </c>
-      <c r="F145" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>172</v>
-      </c>
-      <c r="B146" s="24">
-        <v>158</v>
-      </c>
-      <c r="C146" s="24">
-        <v>158</v>
-      </c>
-      <c r="F146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>172</v>
-      </c>
-      <c r="B147" s="24">
-        <v>159</v>
-      </c>
-      <c r="C147" s="24">
-        <v>159</v>
-      </c>
-      <c r="F147" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>172</v>
-      </c>
-      <c r="B148" s="24">
-        <v>160</v>
-      </c>
-      <c r="C148" s="24">
-        <v>160</v>
-      </c>
-      <c r="F148" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3966,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3768,13 +3992,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2">
-        <v>202106</v>
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
